--- a/tables/enhancement.xlsx
+++ b/tables/enhancement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uss\RS\wk3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uss\RS\CASA0023_Diary\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B94B72-9A1A-4A54-B663-D1D65FED7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968E1E9-EFE5-4EE4-AC5C-2486E962DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,119 +79,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Minimum - Maximum
+    <t>Using the ratio of reflectance of different bands to highlight specific feature characteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emphasis on relative differences in expression of feature characteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suppressing noise or highlighting local variations through filter operations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smooth or sharpen images; extract edge information as required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extracting the main direction of change reduces the computational burden and noise reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In R this is prcomp() from the terra package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion of data from different sensors or different times </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance the details of the images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images with a narrow distributions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhance images contrast and details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature extraction, target detection</t>
+  </si>
+  <si>
+    <t>Dimensionality reduction, removal of inter-band correlations, and extraction of most of the information in the image.</t>
+  </si>
+  <si>
+    <t>division operations (like NDVI, NDBI, tasselled cap etc.)</t>
+  </si>
+  <si>
+    <t>Normalized Burn Ratio, The Normalised Difference Vegetation Index, the Normalized Difference Moisture Index (NDMI)</t>
+  </si>
+  <si>
+    <t>Data compression, change detection, feature extraction</t>
+  </si>
+  <si>
+    <t>measuring the relationships between pixel-to-pixel, quantifying roughness to obtain feature characteristics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLCM(Gray Level Co-occurrence Matrix )
+ second-order texture measures,  third-order texture measures</t>
+  </si>
+  <si>
+    <t>Grey-scale images or single-band data, windows</t>
+  </si>
+  <si>
+    <t>Characterisation of feature texture, feature classification, target identification</t>
+  </si>
+  <si>
+    <t>Land cover classification, target detection, environmental monitoring</t>
+  </si>
+  <si>
+    <t>Pan-sharpening, Gram-Schmidt, IHS</t>
+  </si>
+  <si>
+    <t>Multi-temporal, multi-sensor data</t>
+  </si>
+  <si>
+    <t>High resolution data generate, changes detection, data integration</t>
+  </si>
+  <si>
+    <t>Minimum- Maximum
 Percentage Linear and Standard Deviation
 Piecewise Linear Contrast Stretch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images with a narrow distribution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enhanced image contrast and details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre-processing for subsequent classification and visual interpretation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Using the ratio of reflectance of different bands to highlight specific feature characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>division operations (like NDVI, NDBI, tasselled cap etc.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Multi-spectral imagery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emphasis on relative differences in expression of feature characteristics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Burn Ratio\The Normalised Difference Vegetation Index\ the Normalized Difference Moisture Index (NDMI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suppressing noise or highlighting local variations through filter operations.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low pass or low frequency (averages the surrounding pixels)/High pass or high frequency - enhance local variations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Original data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smooth or sharpen images; extract edge information as required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature extraction, target detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extracting the main direction of change reduces the computational burden and noise reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data compression, change detection, feature extraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In R this is prcomp() from the terra package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dimensionality reduction, removal of inter-band correlations, and extraction of most of the information in the image.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>measuring the relationships between pixel-to-pixel, quantifying roughness to obtain feature characteristics.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grey-scale images or single-band data, windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characterisation of feature texture, feature classification, target identification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Land cover classification, target detection, environmental monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusion of data from different sensors or different times </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pan-sharpening、Gram-Schmidt、IHS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-temporal, multi-sensor data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High resolution data generate、changes detection、data integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enhance the details of the images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> GLCM(Gray Level Co-occurrence Matrix )
- second-order texture measures/ third-order texture measures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low pass or low frequency (averages the surrounding pixels)/High pass or high frequency-enhance local variations</t>
   </si>
 </sst>
 </file>
@@ -536,18 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="12.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -570,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -578,56 +561,56 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="140" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.3">
@@ -635,59 +618,59 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="126" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
